--- a/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业新产品项目数.xlsx
+++ b/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业新产品项目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31329</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9802</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3947</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17353</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1563</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16440</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1081</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9438</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1134</v>
+      </c>
       <c r="L2" t="n">
-        <v>76176</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>266232</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1690</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4041</v>
+      </c>
+      <c r="P2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>821</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3310</v>
+      </c>
+      <c r="S2" t="n">
+        <v>86</v>
+      </c>
+      <c r="T2" t="n">
+        <v>800</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1470</v>
+      </c>
+      <c r="V2" t="n">
+        <v>48</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1569</v>
+      </c>
+      <c r="X2" t="n">
+        <v>32603</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1049</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1578</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1043</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7822</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1452</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>34672</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>27985</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1512</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6520</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6238</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>224</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3007</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2628</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>7371</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26807</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5542</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21720</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1764</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19925</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1618</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1285</v>
+      </c>
       <c r="L3" t="n">
-        <v>184859</v>
+        <v>323448</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>5476</v>
+      </c>
+      <c r="P3" t="n">
+        <v>113</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1264</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>158</v>
+      </c>
+      <c r="T3" t="n">
+        <v>901</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2124</v>
+      </c>
+      <c r="V3" t="n">
+        <v>65</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1740</v>
+      </c>
+      <c r="X3" t="n">
+        <v>39107</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>1542</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>851</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7894</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>41332</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>33191</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1774</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11128</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8327</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>277</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4041</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>9235</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>31313</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>6816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23590</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26523</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1913</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>2059</v>
+      </c>
       <c r="L4" t="n">
-        <v>237754</v>
+        <v>358287</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>6131</v>
+      </c>
+      <c r="P4" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1335</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>148</v>
+      </c>
+      <c r="T4" t="n">
+        <v>948</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2004</v>
+      </c>
+      <c r="V4" t="n">
+        <v>75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2168</v>
+      </c>
+      <c r="X4" t="n">
+        <v>43991</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>1707</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>740</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8614</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>45390</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>34325</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2112</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12353</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9936</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>242</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4982</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>8971</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22362</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31329</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9802</v>
-      </c>
+        <v>32814</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>3947</v>
+        <v>7594</v>
       </c>
       <c r="F5" t="n">
-        <v>17353</v>
+        <v>25539</v>
       </c>
       <c r="G5" t="n">
-        <v>1563</v>
+        <v>2056</v>
       </c>
       <c r="H5" t="n">
-        <v>16440</v>
+        <v>24414</v>
       </c>
       <c r="I5" t="n">
-        <v>1081</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9438</v>
-      </c>
+        <v>2044</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1134</v>
+        <v>2028</v>
       </c>
       <c r="L5" t="n">
-        <v>266232</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1690</v>
-      </c>
+        <v>375863</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>4041</v>
+        <v>7096</v>
       </c>
       <c r="P5" t="n">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="Q5" t="n">
-        <v>821</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3310</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="T5" t="n">
-        <v>800</v>
+        <v>923</v>
       </c>
       <c r="U5" t="n">
-        <v>1470</v>
+        <v>1601</v>
       </c>
       <c r="V5" t="n">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="W5" t="n">
-        <v>1569</v>
+        <v>2133</v>
       </c>
       <c r="X5" t="n">
-        <v>32603</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1049</v>
-      </c>
+        <v>45860</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>1578</v>
+        <v>1887</v>
       </c>
       <c r="AA5" t="n">
-        <v>1043</v>
+        <v>732</v>
       </c>
       <c r="AB5" t="n">
-        <v>7822</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1452</v>
-      </c>
+        <v>8844</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>34672</v>
+        <v>45358</v>
       </c>
       <c r="AE5" t="n">
-        <v>27985</v>
+        <v>36206</v>
       </c>
       <c r="AF5" t="n">
-        <v>1512</v>
+        <v>2417</v>
       </c>
       <c r="AG5" t="n">
-        <v>6520</v>
+        <v>13507</v>
       </c>
       <c r="AH5" t="n">
-        <v>6238</v>
+        <v>11048</v>
       </c>
       <c r="AI5" t="n">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3007</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2628</v>
-      </c>
+        <v>5471</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>7371</v>
+        <v>9733</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26807</v>
+        <v>26692</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>5542</v>
+        <v>7295</v>
       </c>
       <c r="F6" t="n">
-        <v>21720</v>
+        <v>24755</v>
       </c>
       <c r="G6" t="n">
-        <v>1764</v>
+        <v>2086</v>
       </c>
       <c r="H6" t="n">
-        <v>19925</v>
+        <v>22106</v>
       </c>
       <c r="I6" t="n">
-        <v>1618</v>
+        <v>2097</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>1285</v>
+        <v>1947</v>
       </c>
       <c r="L6" t="n">
-        <v>323448</v>
+        <v>326286</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>5476</v>
+        <v>6283</v>
       </c>
       <c r="P6" t="n">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="Q6" t="n">
-        <v>1264</v>
+        <v>1549</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="T6" t="n">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="U6" t="n">
-        <v>2124</v>
+        <v>1258</v>
       </c>
       <c r="V6" t="n">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="W6" t="n">
-        <v>1740</v>
+        <v>2072</v>
       </c>
       <c r="X6" t="n">
-        <v>39107</v>
+        <v>39587</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>1542</v>
+        <v>1581</v>
       </c>
       <c r="AA6" t="n">
-        <v>851</v>
+        <v>486</v>
       </c>
       <c r="AB6" t="n">
-        <v>7894</v>
+        <v>7466</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>41332</v>
+        <v>33410</v>
       </c>
       <c r="AE6" t="n">
-        <v>33191</v>
+        <v>32280</v>
       </c>
       <c r="AF6" t="n">
-        <v>1774</v>
+        <v>2511</v>
       </c>
       <c r="AG6" t="n">
-        <v>11128</v>
+        <v>12483</v>
       </c>
       <c r="AH6" t="n">
-        <v>8327</v>
+        <v>10499</v>
       </c>
       <c r="AI6" t="n">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4041</v>
+        <v>5201</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>9235</v>
+        <v>7903</v>
       </c>
       <c r="AM6" t="n">
-        <v>106</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31313</v>
+        <v>31838</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>6816</v>
+        <v>9649</v>
       </c>
       <c r="F7" t="n">
-        <v>23590</v>
+        <v>28763</v>
       </c>
       <c r="G7" t="n">
-        <v>1980</v>
+        <v>2342</v>
       </c>
       <c r="H7" t="n">
-        <v>26523</v>
+        <v>25320</v>
       </c>
       <c r="I7" t="n">
-        <v>1913</v>
+        <v>2681</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>2059</v>
+        <v>2801</v>
       </c>
       <c r="L7" t="n">
-        <v>358287</v>
+        <v>391872</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>6131</v>
+        <v>7751</v>
       </c>
       <c r="P7" t="n">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="Q7" t="n">
-        <v>1335</v>
+        <v>1899</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="T7" t="n">
-        <v>948</v>
+        <v>1129</v>
       </c>
       <c r="U7" t="n">
-        <v>2004</v>
+        <v>1134</v>
       </c>
       <c r="V7" t="n">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="W7" t="n">
-        <v>2168</v>
+        <v>2332</v>
       </c>
       <c r="X7" t="n">
-        <v>43991</v>
+        <v>47952</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>1707</v>
+        <v>1670</v>
       </c>
       <c r="AA7" t="n">
-        <v>740</v>
+        <v>558</v>
       </c>
       <c r="AB7" t="n">
-        <v>8614</v>
+        <v>8639</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>45390</v>
+        <v>42040</v>
       </c>
       <c r="AE7" t="n">
-        <v>34325</v>
+        <v>37274</v>
       </c>
       <c r="AF7" t="n">
-        <v>2112</v>
+        <v>3406</v>
       </c>
       <c r="AG7" t="n">
-        <v>12353</v>
+        <v>16586</v>
       </c>
       <c r="AH7" t="n">
-        <v>9936</v>
+        <v>12834</v>
       </c>
       <c r="AI7" t="n">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4982</v>
+        <v>6618</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>8971</v>
+        <v>8349</v>
       </c>
       <c r="AM7" t="n">
-        <v>193</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32814</v>
+        <v>39780</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>7594</v>
+        <v>11323</v>
       </c>
       <c r="F8" t="n">
-        <v>25539</v>
+        <v>34054</v>
       </c>
       <c r="G8" t="n">
-        <v>2056</v>
+        <v>2948</v>
       </c>
       <c r="H8" t="n">
-        <v>24414</v>
+        <v>28584</v>
       </c>
       <c r="I8" t="n">
-        <v>2044</v>
+        <v>3609</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>2028</v>
+        <v>4061</v>
       </c>
       <c r="L8" t="n">
-        <v>375863</v>
+        <v>477861</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>7096</v>
+        <v>9083</v>
       </c>
       <c r="P8" t="n">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="Q8" t="n">
-        <v>1462</v>
+        <v>2339</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>227</v>
+        <v>354</v>
       </c>
       <c r="T8" t="n">
-        <v>923</v>
+        <v>1069</v>
       </c>
       <c r="U8" t="n">
-        <v>1601</v>
+        <v>1292</v>
       </c>
       <c r="V8" t="n">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="W8" t="n">
-        <v>2133</v>
+        <v>2599</v>
       </c>
       <c r="X8" t="n">
-        <v>45860</v>
+        <v>58584</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>1887</v>
+        <v>1851</v>
       </c>
       <c r="AA8" t="n">
-        <v>732</v>
+        <v>835</v>
       </c>
       <c r="AB8" t="n">
-        <v>8844</v>
+        <v>9982</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>45358</v>
+        <v>54162</v>
       </c>
       <c r="AE8" t="n">
-        <v>36206</v>
+        <v>44181</v>
       </c>
       <c r="AF8" t="n">
-        <v>2417</v>
+        <v>4537</v>
       </c>
       <c r="AG8" t="n">
-        <v>13507</v>
+        <v>21437</v>
       </c>
       <c r="AH8" t="n">
-        <v>11048</v>
+        <v>16827</v>
       </c>
       <c r="AI8" t="n">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5471</v>
+        <v>7877</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>9733</v>
+        <v>9272</v>
       </c>
       <c r="AM8" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26692</v>
+        <v>46597</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>7295</v>
+        <v>11862</v>
       </c>
       <c r="F9" t="n">
-        <v>24755</v>
+        <v>37432</v>
       </c>
       <c r="G9" t="n">
-        <v>2086</v>
+        <v>3154</v>
       </c>
       <c r="H9" t="n">
-        <v>22106</v>
+        <v>31679</v>
       </c>
       <c r="I9" t="n">
-        <v>2097</v>
+        <v>4463</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>1947</v>
+        <v>5210</v>
       </c>
       <c r="L9" t="n">
-        <v>326286</v>
+        <v>558305</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>6283</v>
+        <v>10364</v>
       </c>
       <c r="P9" t="n">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="Q9" t="n">
-        <v>1549</v>
+        <v>3011</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>215</v>
+        <v>393</v>
       </c>
       <c r="T9" t="n">
-        <v>892</v>
+        <v>1185</v>
       </c>
       <c r="U9" t="n">
-        <v>1258</v>
+        <v>1341</v>
       </c>
       <c r="V9" t="n">
-        <v>153</v>
+        <v>505</v>
       </c>
       <c r="W9" t="n">
-        <v>2072</v>
+        <v>3292</v>
       </c>
       <c r="X9" t="n">
-        <v>39587</v>
+        <v>67027</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>1581</v>
+        <v>2323</v>
       </c>
       <c r="AA9" t="n">
-        <v>486</v>
+        <v>596</v>
       </c>
       <c r="AB9" t="n">
-        <v>7466</v>
+        <v>12781</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>33410</v>
+        <v>64306</v>
       </c>
       <c r="AE9" t="n">
-        <v>32280</v>
+        <v>53128</v>
       </c>
       <c r="AF9" t="n">
-        <v>2511</v>
+        <v>5761</v>
       </c>
       <c r="AG9" t="n">
-        <v>12483</v>
+        <v>28036</v>
       </c>
       <c r="AH9" t="n">
-        <v>10499</v>
+        <v>21309</v>
       </c>
       <c r="AI9" t="n">
-        <v>314</v>
+        <v>479</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5201</v>
+        <v>9383</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>7903</v>
+        <v>9760</v>
       </c>
       <c r="AM9" t="n">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31838</v>
+        <v>57743</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>9649</v>
+        <v>13771</v>
       </c>
       <c r="F10" t="n">
-        <v>28763</v>
+        <v>42578</v>
       </c>
       <c r="G10" t="n">
-        <v>2342</v>
+        <v>4032</v>
       </c>
       <c r="H10" t="n">
-        <v>25320</v>
+        <v>36098</v>
       </c>
       <c r="I10" t="n">
-        <v>2681</v>
+        <v>5916</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2801</v>
+        <v>7323</v>
       </c>
       <c r="L10" t="n">
-        <v>391872</v>
+        <v>671799</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>7751</v>
+        <v>11843</v>
       </c>
       <c r="P10" t="n">
-        <v>237</v>
+        <v>429</v>
       </c>
       <c r="Q10" t="n">
-        <v>1899</v>
+        <v>3715</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>239</v>
+        <v>592</v>
       </c>
       <c r="T10" t="n">
-        <v>1129</v>
+        <v>1404</v>
       </c>
       <c r="U10" t="n">
-        <v>1134</v>
+        <v>1219</v>
       </c>
       <c r="V10" t="n">
-        <v>156</v>
+        <v>658</v>
       </c>
       <c r="W10" t="n">
-        <v>2332</v>
+        <v>5153</v>
       </c>
       <c r="X10" t="n">
-        <v>47952</v>
+        <v>78462</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>1670</v>
+        <v>2626</v>
       </c>
       <c r="AA10" t="n">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="AB10" t="n">
-        <v>8639</v>
+        <v>16792</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>42040</v>
+        <v>76274</v>
       </c>
       <c r="AE10" t="n">
-        <v>37274</v>
+        <v>64452</v>
       </c>
       <c r="AF10" t="n">
-        <v>3406</v>
+        <v>7232</v>
       </c>
       <c r="AG10" t="n">
-        <v>16586</v>
+        <v>36399</v>
       </c>
       <c r="AH10" t="n">
-        <v>12834</v>
+        <v>26952</v>
       </c>
       <c r="AI10" t="n">
-        <v>356</v>
+        <v>603</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6618</v>
+        <v>10861</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>8349</v>
+        <v>11145</v>
       </c>
       <c r="AM10" t="n">
-        <v>256</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39780</v>
+        <v>70750</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>11323</v>
+        <v>16658</v>
       </c>
       <c r="F11" t="n">
-        <v>34054</v>
+        <v>48654</v>
       </c>
       <c r="G11" t="n">
-        <v>2948</v>
+        <v>4526</v>
       </c>
       <c r="H11" t="n">
-        <v>28584</v>
+        <v>42145</v>
       </c>
       <c r="I11" t="n">
-        <v>3609</v>
+        <v>7343</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>4061</v>
+        <v>8638</v>
       </c>
       <c r="L11" t="n">
-        <v>477861</v>
+        <v>788125</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>9083</v>
+        <v>13843</v>
       </c>
       <c r="P11" t="n">
-        <v>282</v>
+        <v>489</v>
       </c>
       <c r="Q11" t="n">
-        <v>2339</v>
+        <v>4140</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>354</v>
+        <v>751</v>
       </c>
       <c r="T11" t="n">
-        <v>1069</v>
+        <v>1322</v>
       </c>
       <c r="U11" t="n">
-        <v>1292</v>
+        <v>1489</v>
       </c>
       <c r="V11" t="n">
-        <v>264</v>
+        <v>826</v>
       </c>
       <c r="W11" t="n">
-        <v>2599</v>
+        <v>5812</v>
       </c>
       <c r="X11" t="n">
-        <v>58584</v>
+        <v>88459</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1851</v>
+        <v>3157</v>
       </c>
       <c r="AA11" t="n">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="AB11" t="n">
-        <v>9982</v>
+        <v>20408</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>54162</v>
+        <v>88383</v>
       </c>
       <c r="AE11" t="n">
-        <v>44181</v>
+        <v>76094</v>
       </c>
       <c r="AF11" t="n">
-        <v>4537</v>
+        <v>8754</v>
       </c>
       <c r="AG11" t="n">
-        <v>21437</v>
+        <v>43745</v>
       </c>
       <c r="AH11" t="n">
-        <v>16827</v>
+        <v>34352</v>
       </c>
       <c r="AI11" t="n">
-        <v>425</v>
+        <v>738</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7877</v>
+        <v>12912</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>9272</v>
+        <v>13416</v>
       </c>
       <c r="AM11" t="n">
-        <v>236</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46597</v>
+        <v>86378</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>11862</v>
+        <v>19658</v>
       </c>
       <c r="F12" t="n">
-        <v>37432</v>
+        <v>57648</v>
       </c>
       <c r="G12" t="n">
-        <v>3154</v>
+        <v>5253</v>
       </c>
       <c r="H12" t="n">
-        <v>31679</v>
+        <v>49652</v>
       </c>
       <c r="I12" t="n">
-        <v>4463</v>
+        <v>9297</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>5210</v>
+        <v>10598</v>
       </c>
       <c r="L12" t="n">
-        <v>558305</v>
+        <v>958709</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>10364</v>
+        <v>17174</v>
       </c>
       <c r="P12" t="n">
-        <v>372</v>
+        <v>735</v>
       </c>
       <c r="Q12" t="n">
-        <v>3011</v>
+        <v>6007</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>393</v>
+        <v>1123</v>
       </c>
       <c r="T12" t="n">
-        <v>1185</v>
+        <v>1571</v>
       </c>
       <c r="U12" t="n">
-        <v>1341</v>
+        <v>1985</v>
       </c>
       <c r="V12" t="n">
-        <v>505</v>
+        <v>1004</v>
       </c>
       <c r="W12" t="n">
-        <v>3292</v>
+        <v>7775</v>
       </c>
       <c r="X12" t="n">
-        <v>67027</v>
+        <v>103969</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>2323</v>
+        <v>3889</v>
       </c>
       <c r="AA12" t="n">
-        <v>596</v>
+        <v>842</v>
       </c>
       <c r="AB12" t="n">
-        <v>12781</v>
+        <v>24747</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>64306</v>
+        <v>109234</v>
       </c>
       <c r="AE12" t="n">
-        <v>53128</v>
+        <v>93674</v>
       </c>
       <c r="AF12" t="n">
-        <v>5761</v>
+        <v>10571</v>
       </c>
       <c r="AG12" t="n">
-        <v>28036</v>
+        <v>55748</v>
       </c>
       <c r="AH12" t="n">
-        <v>21309</v>
+        <v>44270</v>
       </c>
       <c r="AI12" t="n">
-        <v>479</v>
+        <v>1079</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9383</v>
+        <v>15869</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>9760</v>
+        <v>15436</v>
       </c>
       <c r="AM12" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>57743</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>13771</v>
-      </c>
-      <c r="F13" t="n">
-        <v>42578</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4032</v>
-      </c>
-      <c r="H13" t="n">
-        <v>36098</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5916</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>7323</v>
-      </c>
-      <c r="L13" t="n">
-        <v>671799</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>11843</v>
-      </c>
-      <c r="P13" t="n">
-        <v>429</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3715</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>592</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1404</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1219</v>
-      </c>
-      <c r="V13" t="n">
-        <v>658</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5153</v>
-      </c>
-      <c r="X13" t="n">
-        <v>78462</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>2626</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>630</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16792</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>76274</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>64452</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7232</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>36399</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26952</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>603</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10861</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>11145</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>16658</v>
-      </c>
-      <c r="F14" t="n">
-        <v>48654</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4526</v>
-      </c>
-      <c r="H14" t="n">
-        <v>42145</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7343</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>8638</v>
-      </c>
-      <c r="L14" t="n">
-        <v>788125</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>13843</v>
-      </c>
-      <c r="P14" t="n">
-        <v>489</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4140</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>751</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1322</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1489</v>
-      </c>
-      <c r="V14" t="n">
-        <v>826</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5812</v>
-      </c>
-      <c r="X14" t="n">
-        <v>88459</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>3157</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>814</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>20408</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>88383</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>76094</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8754</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>43745</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>34352</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>738</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12912</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>13416</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>392</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
